--- a/biology/Zoologie/Campyloptère_à_ventre_gris/Campyloptère_à_ventre_gris.xlsx
+++ b/biology/Zoologie/Campyloptère_à_ventre_gris/Campyloptère_à_ventre_gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_%C3%A0_ventre_gris</t>
+          <t>Campyloptère_à_ventre_gris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campylopterus largipennis
 Le Campyloptère à ventre gris (Campylopterus largipennis) est une espèce d'oiseaux de la famille des Trochilidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_%C3%A0_ventre_gris</t>
+          <t>Campyloptère_à_ventre_gris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les forêts tropicales et subtropicales humides de plaine, ainsi que les sites où existaient auparavant des forêts, lourdement dégradées depuis.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_%C3%A0_ventre_gris</t>
+          <t>Campyloptère_à_ventre_gris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après Alan P. Peterson[1] 4 sous-espèces ont été décrites :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après Alan P. Peterson 4 sous-espèces ont été décrites :
 Campylopterus largipennis aequatorialis Gould, 1861 ;
 Campylopterus largipennis diamantinensis Ruschi, 1963 ;
 Campylopterus largipennis largipennis (Boddaert, 1783) ;
